--- a/Jogos_do_Dia/2022-12-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -695,25 +695,25 @@
         <v>2.19</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE2" t="n">
         <v>1.83</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -805,13 +805,13 @@
         <v>2.05</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AD3" t="n">
         <v>1.38</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.48</v>
       </c>
       <c r="I4" t="n">
         <v>1.06</v>

--- a/Jogos_do_Dia/2022-12-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.39</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
         <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.71</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -716,7 +716,7 @@
         <v>3.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -763,10 +763,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="N3" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="G4" t="n">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="H4" t="n">
-        <v>3.48</v>
+        <v>3.23</v>
       </c>
       <c r="I4" t="n">
         <v>1.06</v>
@@ -873,10 +873,10 @@
         <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
